--- a/pickles2/px-files/sitemaps/sitemap.xlsx
+++ b/pickles2/px-files/sitemaps/sitemap.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
-  </si>
-  <si>
-    <t>Exported: 2016-01-02 18:56:11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.3</t>
+  </si>
+  <si>
+    <t>「Pickles 2 Web Tool」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2016-06-06 18:01:33</t>
   </si>
   <si>
     <t>ページID</t>
@@ -72,6 +71,9 @@
     <t>削除フラグ</t>
   </si>
   <si>
+    <t>assignee</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
@@ -129,6 +131,9 @@
     <t>top</t>
   </si>
   <si>
+    <t>user1</t>
+  </si>
+  <si>
     <t>サンプルページ1</t>
   </si>
   <si>
@@ -153,87 +158,91 @@
     <t>/sample_pages/page3/</t>
   </si>
   <si>
+    <t>サンプルページ4</t>
+  </si>
+  <si>
+    <t>/sample_pages/page4/</t>
+  </si>
+  <si>
+    <t>サンプルページ5</t>
+  </si>
+  <si>
+    <t>/sample_pages/page5/</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>サンプルページ6</t>
+  </si>
+  <si>
+    <t>/sample_pages/page6/</t>
+  </si>
+  <si>
+    <t>サンプルページ7</t>
+  </si>
+  <si>
+    <t>/sample_pages/page7/</t>
+  </si>
+  <si>
+    <t>サンプルページ8</t>
+  </si>
+  <si>
+    <t>/sample_pages/page8/</t>
+  </si>
+  <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <t>/sample_pages/page4/</t>
-  </si>
-  <si>
-    <t>/sample_pages/page5/</t>
-  </si>
-  <si>
-    <t>/sample_pages/page6/</t>
-  </si>
-  <si>
-    <t>/sample_pages/page7/</t>
-  </si>
-  <si>
-    <t>/sample_pages/page8/</t>
-  </si>
-  <si>
-    <t>サンプルページ4</t>
-  </si>
-  <si>
-    <t>サンプルページ5</t>
-  </si>
-  <si>
-    <t>サンプルページ6</t>
-  </si>
-  <si>
-    <t>サンプルページ7</t>
-  </si>
-  <si>
-    <t>サンプルページ8</t>
-  </si>
-  <si>
-    <t>「Pickles 2 Web Tool」 サイトマップ</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="メイリオ"/>
     </font>
   </fonts>
@@ -242,7 +251,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -258,25 +270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -290,14 +296,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -305,14 +310,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -320,14 +324,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -335,45 +338,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -663,32 +672,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="40" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="13" max="13" width="3" customWidth="true" style="0"/>
+    <col min="14" max="14" width="9" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="16" max="16" width="30" customWidth="true" style="0"/>
+    <col min="15" max="15" width="3" customWidth="true" style="0"/>
+    <col min="18" max="18" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="10" customHeight="1">
+    <row r="1" spans="1:21" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,330 +732,346 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="37">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="U8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
-        <v>1</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
+      <c r="K10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="P10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S10" s="4">
-        <v>1</v>
-      </c>
-      <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
       <c r="Q11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S11" s="4">
-        <v>1</v>
-      </c>
-      <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
+      <c r="K12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="P12" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
+      <c r="K13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="P13" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="4">
+        <v>1</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1</v>
-      </c>
-      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
-        <v>1</v>
-      </c>
+      <c r="K14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="P14" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1</v>
-      </c>
-      <c r="T14" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="R14" s="4">
+        <v>1</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21">
@@ -1048,105 +1083,111 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
+      <c r="K15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="P15" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="4">
-        <v>1</v>
-      </c>
-      <c r="T15" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="R15" s="4">
+        <v>1</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="P16" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S16" s="4">
-        <v>1</v>
-      </c>
-      <c r="T16" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="R16" s="4">
+        <v>1</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
-        <v>1</v>
-      </c>
+      <c r="K17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="Q17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" s="4">
-        <v>1</v>
-      </c>
-      <c r="T17" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="U17" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="5" customHeight="1">
+    <row r="20" spans="1:21" customHeight="1" ht="5">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1170,18 +1211,21 @@
       <c r="U20" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/pickles2/px-files/sitemaps/sitemap.xlsx
+++ b/pickles2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.5</t>
   </si>
   <si>
     <t>「Pickles 2 Web Tool」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2016-06-06 18:01:33</t>
+    <t>Exported: 2016-09-12 03:39:39</t>
   </si>
   <si>
     <t>ページID</t>
@@ -68,57 +68,60 @@
     <t>カテゴリトップフラグ</t>
   </si>
   <si>
+    <t>ロール</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
     <t>assignee</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_h1</t>
+  </si>
+  <si>
+    <t>title_label</t>
+  </si>
+  <si>
+    <t>title_breadcrumb</t>
+  </si>
+  <si>
+    <t>title_full</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>list_flg</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>orderby</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category_top_flg</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title_h1</t>
-  </si>
-  <si>
-    <t>title_label</t>
-  </si>
-  <si>
-    <t>title_breadcrumb</t>
-  </si>
-  <si>
-    <t>title_full</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>list_flg</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>orderby</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category_top_flg</t>
-  </si>
-  <si>
     <t>**delete_flg</t>
   </si>
   <si>
@@ -189,6 +192,21 @@
   </si>
   <si>
     <t>/sample_pages/page8/</t>
+  </si>
+  <si>
+    <t>alias: サンプルページ8</t>
+  </si>
+  <si>
+    <t>alias:/sample_pages/page8/</t>
+  </si>
+  <si>
+    <t>サンプルページ9: dynamic path</t>
+  </si>
+  <si>
+    <t>/sample_pages/page9/{*}</t>
+  </si>
+  <si>
+    <t>/sample_pages/page9/index.html</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -676,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -850,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>19</v>
@@ -859,7 +877,7 @@
     <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -870,30 +888,30 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>1</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -903,7 +921,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4">
@@ -912,25 +930,25 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R10" s="4">
         <v>1</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -940,7 +958,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
@@ -949,25 +967,25 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R11" s="4">
         <v>1</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -977,7 +995,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
@@ -986,25 +1004,25 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R12" s="4">
         <v>1</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1014,7 +1032,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
@@ -1023,25 +1041,25 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R13" s="4">
         <v>1</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1051,7 +1069,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
@@ -1060,25 +1078,25 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R14" s="4">
         <v>1</v>
       </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1088,7 +1106,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
@@ -1097,25 +1115,25 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R15" s="4">
         <v>1</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1125,7 +1143,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4">
@@ -1134,25 +1152,25 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R16" s="4">
         <v>1</v>
       </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1162,7 +1180,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
@@ -1171,44 +1189,120 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R17" s="4">
-        <v>1</v>
-      </c>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U17" s="4"/>
-    </row>
-    <row r="20" spans="1:21" customHeight="1" ht="5">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="Q18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" customHeight="1" ht="5">
+      <c r="A22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/pickles2/px-files/sitemaps/sitemap.xlsx
+++ b/pickles2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7-alpha.1%2Bnb</t>
   </si>
   <si>
     <t>「Pickles 2 Web Tool」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2016-09-12 03:39:39</t>
+    <t>Exported: 2017-03-31 21:30:56</t>
   </si>
   <si>
     <t>ページID</t>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>/sample_pages/page6/</t>
+  </si>
+  <si>
+    <t>サンプル6-1</t>
+  </si>
+  <si>
+    <t>/sample_pages/page6/1.html</t>
+  </si>
+  <si>
+    <t>サンプル6-2</t>
+  </si>
+  <si>
+    <t>/sample_pages/page6/2.html</t>
+  </si>
+  <si>
+    <t>サンプル6-3</t>
+  </si>
+  <si>
+    <t>/sample_pages/page6/3.html</t>
   </si>
   <si>
     <t>サンプルページ7</t>
@@ -694,7 +712,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1132,10 +1150,10 @@
     <row r="16" spans="1:21">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="4"/>
@@ -1169,10 +1187,10 @@
     <row r="17" spans="1:21">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="4"/>
@@ -1206,10 +1224,10 @@
     <row r="18" spans="1:21">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
@@ -1256,9 +1274,7 @@
       <c r="K19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -1279,30 +1295,143 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:21" customHeight="1" ht="5">
-      <c r="A22" s="10" t="s">
+    <row r="20" spans="1:21">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="4">
+        <v>1</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" customHeight="1" ht="5">
+      <c r="A25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/pickles2/px-files/sitemaps/sitemap.xlsx
+++ b/pickles2/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7-alpha.1%2Bnb</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「Pickles 2 Web Tool」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2017-03-31 21:30:56</t>
+    <t>Exported: 2017-04-14 05:07:04</t>
   </si>
   <si>
     <t>ページID</t>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>/sample_pages/page9/index.html</t>
+  </si>
+  <si>
+    <t>サンプルページ10 (list_flg:0)</t>
+  </si>
+  <si>
+    <t>/sample_pages/page10/</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -712,7 +718,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -1408,30 +1414,67 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:21" customHeight="1" ht="5">
-      <c r="A25" s="10" t="s">
+    <row r="23" spans="1:21">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" customHeight="1" ht="5">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/pickles2/px-files/sitemaps/sitemap.xlsx
+++ b/pickles2/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28028"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="32380" yWindow="1440" windowWidth="31260" windowHeight="17640"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7-alpha.1%2Bnb</t>
   </si>
@@ -234,57 +238,124 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>サンプル6-4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプル6-5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプル6-6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプル6-7</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サンプル6-8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/page6/4.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/page6/5.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/page6/6.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/page6/7.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/sample_pages/page6/8.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user4</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user7</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user8</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="メイリオ"/>
     </font>
   </fonts>
@@ -293,10 +364,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -312,19 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -338,13 +412,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -352,13 +427,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -366,13 +442,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -380,51 +457,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -714,42 +781,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:U26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.625" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="17" width="30" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="10">
+    <row r="1" spans="1:21" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +831,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="37">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -788,13 +845,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -845,13 +902,13 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1244,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1224,7 +1281,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1261,16 +1318,16 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
@@ -1278,7 +1335,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
@@ -1298,16 +1355,16 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
@@ -1315,7 +1372,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
@@ -1335,16 +1392,16 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="4"/>
@@ -1352,7 +1409,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
@@ -1372,16 +1429,16 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="4"/>
@@ -1389,11 +1446,9 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="4">
         <v>1</v>
       </c>
@@ -1411,16 +1466,16 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="4"/>
@@ -1428,11 +1483,11 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -1448,50 +1503,234 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>1</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" customHeight="1" ht="5">
-      <c r="A26" s="10" t="s">
+    <row r="25" spans="1:21">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="5" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>